--- a/projectTwo/data.xlsx
+++ b/projectTwo/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivoda\Desktop\ZF\7. SEMESTAR\Praksa\LamaPraksa\projectTwo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC8EBB8-6770-4706-A786-BBB463F97BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{736ECD66-F357-4BCB-BD79-0845BA3C8142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BE7BE3C6-BC04-4460-836E-2F57D18A23B1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="43">
   <si>
     <t>ISVUOznaka</t>
   </si>
@@ -569,10 +569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5A6B35B-68A6-4DED-9F9A-C4C2156920E2}">
-  <dimension ref="A1:Y6"/>
+  <dimension ref="A1:Y11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1"/>
+      <selection activeCell="A7" sqref="A7:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1060,6 +1060,385 @@
         <v>0</v>
       </c>
     </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="5">
+        <v>12345678901</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" s="5">
+        <v>12</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="N7" s="5">
+        <v>3</v>
+      </c>
+      <c r="O7" s="5">
+        <v>0</v>
+      </c>
+      <c r="P7" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>9</v>
+      </c>
+      <c r="R7" s="5">
+        <v>0</v>
+      </c>
+      <c r="S7" s="5">
+        <v>0</v>
+      </c>
+      <c r="T7" s="5">
+        <v>3</v>
+      </c>
+      <c r="U7" s="5">
+        <v>0</v>
+      </c>
+      <c r="V7" s="5">
+        <v>0</v>
+      </c>
+      <c r="W7" s="5">
+        <v>9</v>
+      </c>
+      <c r="X7" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="5">
+        <v>12345678902</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" s="5">
+        <v>12</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5">
+        <v>0</v>
+      </c>
+      <c r="O8" s="5">
+        <v>1</v>
+      </c>
+      <c r="P8" s="5">
+        <v>2</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>0</v>
+      </c>
+      <c r="R8" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="S8" s="5">
+        <v>2</v>
+      </c>
+      <c r="T8" s="5">
+        <v>0</v>
+      </c>
+      <c r="U8" s="5">
+        <v>1</v>
+      </c>
+      <c r="V8" s="5">
+        <v>2</v>
+      </c>
+      <c r="W8" s="5">
+        <v>0</v>
+      </c>
+      <c r="X8" s="5">
+        <v>1.5</v>
+      </c>
+      <c r="Y8" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="5">
+        <v>12345678903</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" s="5">
+        <v>12</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="N9" s="5">
+        <v>1</v>
+      </c>
+      <c r="O9" s="5">
+        <v>0</v>
+      </c>
+      <c r="P9" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>3</v>
+      </c>
+      <c r="R9" s="5">
+        <v>0</v>
+      </c>
+      <c r="S9" s="5">
+        <v>0</v>
+      </c>
+      <c r="T9" s="5">
+        <v>1</v>
+      </c>
+      <c r="U9" s="5">
+        <v>0</v>
+      </c>
+      <c r="V9" s="5">
+        <v>0</v>
+      </c>
+      <c r="W9" s="5">
+        <v>3</v>
+      </c>
+      <c r="X9" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="5">
+        <v>12345678904</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="5">
+        <v>12</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="N10" s="5">
+        <v>1</v>
+      </c>
+      <c r="O10" s="5">
+        <v>0</v>
+      </c>
+      <c r="P10" s="5">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>3</v>
+      </c>
+      <c r="R10" s="5">
+        <v>0</v>
+      </c>
+      <c r="S10" s="5">
+        <v>4</v>
+      </c>
+      <c r="T10" s="5">
+        <v>1</v>
+      </c>
+      <c r="U10" s="5">
+        <v>0</v>
+      </c>
+      <c r="V10" s="5">
+        <v>4</v>
+      </c>
+      <c r="W10" s="5">
+        <v>3</v>
+      </c>
+      <c r="X10" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="5">
+        <v>12345678905</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J11" s="5">
+        <v>12</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5">
+        <v>0</v>
+      </c>
+      <c r="O11" s="5">
+        <v>2</v>
+      </c>
+      <c r="P11" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>0</v>
+      </c>
+      <c r="R11" s="5">
+        <v>3</v>
+      </c>
+      <c r="S11" s="5">
+        <v>0</v>
+      </c>
+      <c r="T11" s="5">
+        <v>0</v>
+      </c>
+      <c r="U11" s="5">
+        <v>2</v>
+      </c>
+      <c r="V11" s="5">
+        <v>0</v>
+      </c>
+      <c r="W11" s="5">
+        <v>0</v>
+      </c>
+      <c r="X11" s="5">
+        <v>3</v>
+      </c>
+      <c r="Y11" s="6">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
